--- a/20 開発資料/03.詳細設計/プロセス概要(04_新着 会場手配一覧).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(04_新着 会場手配一覧).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="80">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -765,6 +765,32 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷ボタンを使用不可にする。</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷ボタンを使用可能にする。</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1129,58 +1155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,6 +1200,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1234,6 +1235,31 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2159,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2169,196 +2195,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="25">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41554</v>
       </c>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -2370,66 +2396,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -2770,11 +2796,9 @@
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
       <c r="L15" s="4"/>
-      <c r="M15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>76</v>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s">
+        <v>78</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2823,12 +2847,12 @@
       <c r="J16" s="3"/>
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -2877,8 +2901,8 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
-        <v>48</v>
+      <c r="O17" t="s">
+        <v>50</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2930,7 +2954,11 @@
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -2979,6 +3007,9 @@
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
       <c r="N19" s="2"/>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -4017,6 +4048,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4033,16 +4074,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4058,7 +4089,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4067,196 +4098,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="25">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41554</v>
       </c>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -4268,66 +4299,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -4668,11 +4699,9 @@
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
       <c r="L15" s="4"/>
-      <c r="M15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>76</v>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s">
+        <v>78</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -4721,12 +4750,12 @@
       <c r="J16" s="3"/>
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -4775,8 +4804,8 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
-        <v>48</v>
+      <c r="O17" t="s">
+        <v>50</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -4828,7 +4857,11 @@
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -4877,6 +4910,9 @@
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
       <c r="N19" s="2"/>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -5915,6 +5951,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -5931,16 +5977,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -5955,8 +5991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5965,196 +6001,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="25">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41554</v>
       </c>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -6166,66 +6202,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -7850,16 +7886,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -7876,6 +7902,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7901,196 +7937,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="25">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41554</v>
       </c>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -8102,66 +8138,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -9790,6 +9826,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -9806,16 +9852,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -9841,196 +9877,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="25">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41554</v>
       </c>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -10042,66 +10078,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -11690,6 +11726,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -11706,16 +11752,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
